--- a/public/FreightServicePrice.xlsx
+++ b/public/FreightServicePrice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
   <si>
     <t>Beliatta</t>
   </si>
@@ -34,25 +34,31 @@
     <t>Ambalangoda</t>
   </si>
   <si>
-    <t>Matar</t>
+    <t>Aluthgama</t>
   </si>
   <si>
-    <t>v</t>
+    <t>Kaluthara</t>
   </si>
   <si>
-    <t>gghg</t>
+    <t>Pandura</t>
   </si>
   <si>
-    <t>huu</t>
+    <t>Colombo</t>
   </si>
   <si>
-    <t>f</t>
+    <t>FF</t>
   </si>
   <si>
-    <t xml:space="preserve"> g</t>
+    <t>LL</t>
   </si>
   <si>
-    <t>g</t>
+    <t>TWL</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -88,11 +94,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -100,13 +103,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,316 +415,1024 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="31" width="6.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5" t="s">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>45</v>
+      </c>
+      <c r="E23">
+        <v>35</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1">
-        <v>3</v>
-      </c>
-      <c r="O2" s="1">
-        <v>4</v>
-      </c>
-      <c r="P2" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>2</v>
-      </c>
-      <c r="S2" s="1">
-        <v>3</v>
-      </c>
-      <c r="T2" s="1">
-        <v>4</v>
-      </c>
-      <c r="U2" s="1">
-        <v>5</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>2</v>
-      </c>
-      <c r="X2" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>65</v>
+      </c>
+      <c r="D29">
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <v>45</v>
+      </c>
+      <c r="F29">
+        <v>35</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>40</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>65</v>
+      </c>
+      <c r="D33">
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <v>25</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>70</v>
+      </c>
+      <c r="D34">
+        <v>60</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>40</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <v>65</v>
+      </c>
+      <c r="E35">
+        <v>55</v>
+      </c>
+      <c r="F35">
+        <v>45</v>
+      </c>
+      <c r="G35">
+        <v>35</v>
+      </c>
+      <c r="H35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>80</v>
+      </c>
+      <c r="D36">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>60</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
+      </c>
+      <c r="D38">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+      <c r="F38">
+        <v>40</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="H38">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>75</v>
+      </c>
+      <c r="D39">
+        <v>65</v>
+      </c>
+      <c r="E39">
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <v>45</v>
+      </c>
+      <c r="G39">
+        <v>35</v>
+      </c>
+      <c r="H39">
+        <v>25</v>
+      </c>
+      <c r="I39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>80</v>
+      </c>
+      <c r="D40">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>60</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <v>75</v>
+      </c>
+      <c r="E41">
+        <v>65</v>
+      </c>
+      <c r="F41">
+        <v>55</v>
+      </c>
+      <c r="G41">
+        <v>45</v>
+      </c>
+      <c r="H41">
+        <v>35</v>
+      </c>
+      <c r="I41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>90</v>
+      </c>
+      <c r="D42">
+        <v>80</v>
+      </c>
+      <c r="E42">
+        <v>70</v>
+      </c>
+      <c r="F42">
+        <v>60</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+      <c r="H42">
+        <v>40</v>
+      </c>
+      <c r="I42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>70</v>
+      </c>
+      <c r="E44">
+        <v>60</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>85</v>
+      </c>
+      <c r="D45">
+        <v>75</v>
+      </c>
+      <c r="E45">
+        <v>65</v>
+      </c>
+      <c r="F45">
+        <v>55</v>
+      </c>
+      <c r="G45">
+        <v>45</v>
+      </c>
+      <c r="H45">
+        <v>35</v>
+      </c>
+      <c r="I45">
+        <v>25</v>
+      </c>
+      <c r="J45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>90</v>
+      </c>
+      <c r="D46">
+        <v>80</v>
+      </c>
+      <c r="E46">
+        <v>70</v>
+      </c>
+      <c r="F46">
+        <v>60</v>
+      </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
+      <c r="H46">
+        <v>40</v>
+      </c>
+      <c r="I46">
+        <v>30</v>
+      </c>
+      <c r="J46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>95</v>
+      </c>
+      <c r="D47">
+        <v>85</v>
+      </c>
+      <c r="E47">
+        <v>75</v>
+      </c>
+      <c r="F47">
+        <v>65</v>
+      </c>
+      <c r="G47">
+        <v>55</v>
+      </c>
+      <c r="H47">
+        <v>45</v>
+      </c>
+      <c r="I47">
+        <v>35</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>90</v>
+      </c>
+      <c r="E48">
+        <v>80</v>
+      </c>
+      <c r="F48">
+        <v>70</v>
+      </c>
+      <c r="G48">
+        <v>60</v>
+      </c>
+      <c r="H48">
+        <v>50</v>
+      </c>
+      <c r="I48">
+        <v>40</v>
+      </c>
+      <c r="J48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>90</v>
+      </c>
+      <c r="D50">
+        <v>80</v>
+      </c>
+      <c r="E50">
+        <v>70</v>
+      </c>
+      <c r="F50">
+        <v>60</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+      <c r="H50">
+        <v>40</v>
+      </c>
+      <c r="I50">
+        <v>30</v>
+      </c>
+      <c r="J50">
+        <v>20</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>95</v>
+      </c>
+      <c r="D51">
+        <v>85</v>
+      </c>
+      <c r="E51">
+        <v>75</v>
+      </c>
+      <c r="F51">
+        <v>65</v>
+      </c>
+      <c r="G51">
+        <v>55</v>
+      </c>
+      <c r="H51">
+        <v>45</v>
+      </c>
+      <c r="I51">
+        <v>35</v>
+      </c>
+      <c r="J51">
+        <v>25</v>
+      </c>
+      <c r="K51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>90</v>
+      </c>
+      <c r="E52">
+        <v>80</v>
+      </c>
+      <c r="F52">
+        <v>70</v>
+      </c>
+      <c r="G52">
+        <v>60</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>40</v>
+      </c>
+      <c r="J52">
+        <v>30</v>
+      </c>
+      <c r="K52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>105</v>
+      </c>
+      <c r="D53">
+        <v>95</v>
+      </c>
+      <c r="E53">
+        <v>85</v>
+      </c>
+      <c r="F53">
+        <v>75</v>
+      </c>
+      <c r="G53">
+        <v>65</v>
+      </c>
+      <c r="H53">
+        <v>55</v>
+      </c>
+      <c r="I53">
+        <v>45</v>
+      </c>
+      <c r="J53">
+        <v>35</v>
+      </c>
+      <c r="K53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>110</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>90</v>
+      </c>
+      <c r="F54">
+        <v>80</v>
+      </c>
+      <c r="G54">
+        <v>70</v>
+      </c>
+      <c r="H54">
+        <v>60</v>
+      </c>
+      <c r="I54">
+        <v>50</v>
+      </c>
+      <c r="J54">
+        <v>40</v>
+      </c>
+      <c r="K54">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>